--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Google Drive Unlimiteddigits\IPFW\2016 Fall\Essentials of Software engineering\Assignments\assignment-8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -92,6 +88,38 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Mark Erickson</t>
+  </si>
+  <si>
+    <t>Created List of questions to ask customer</t>
+  </si>
+  <si>
+    <t>Add more to the Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Reviewed online calculator</t>
+  </si>
+  <si>
+    <t>Test Main.java</t>
+  </si>
+  <si>
+    <t>created Sprint Planning Meeting Notes</t>
+  </si>
+  <si>
+    <t>Aaron Elliott</t>
+  </si>
+  <si>
+    <t>Created link and repositiory in GitHub.
+Rewatched GitHub checkout video
+Established two workstations (laptops) for testing.  One to do the initial push and commit to GitHub, the other successfully checked out the code remotely and did a successful commit and push.
+Installed and worked/learned Windows Builder for Eclipse.</t>
+  </si>
+  <si>
+    <t>Answer product questions for client
+Will look into understanding Scrum Master duties
+Start on chapter review questions</t>
   </si>
 </sst>
 </file>
@@ -250,13 +278,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,7 +319,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,20 +639,20 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <v>42670</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -620,21 +663,21 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -711,22 +754,22 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -735,27 +778,31 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -802,15 +849,15 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -826,13 +873,13 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -894,24 +941,20 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G17:I17"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="A13:C13"/>
@@ -924,9 +967,10 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
@@ -942,6 +986,9 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -972,46 +1019,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (9)'!H1+1</f>
         <v>42679</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1072,37 +1119,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1163,37 +1210,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1255,54 +1302,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1332,46 +1379,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (10)'!H1+1</f>
         <v>42680</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1432,37 +1479,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1523,37 +1570,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1633,18 +1680,24 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A5:C5"/>
@@ -1652,17 +1705,11 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1692,46 +1739,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (11)'!H1+1</f>
         <v>42681</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1792,37 +1839,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1883,37 +1930,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1975,54 +2022,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2052,46 +2099,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (12)'!H1+1</f>
         <v>42682</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2152,37 +2199,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2243,37 +2290,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -2335,54 +2382,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2412,46 +2459,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (13)'!H1+1</f>
         <v>42683</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2512,37 +2559,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2603,37 +2650,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -2695,54 +2742,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2772,46 +2819,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (14)'!H1+1</f>
         <v>42684</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2872,37 +2919,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2963,37 +3010,407 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3">
+        <f>'Day (1)'!H1+1</f>
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -3073,6 +3490,7 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -3085,384 +3503,23 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16">
-        <f>'Day (1)'!H1+1</f>
-        <v>42671</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3492,46 +3549,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (2)'!H1+1</f>
         <v>42672</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -3592,37 +3649,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -3683,37 +3740,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -3775,54 +3832,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3852,46 +3909,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (3)'!H1+1</f>
         <v>42673</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -3952,37 +4009,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -4043,37 +4100,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -4135,54 +4192,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4212,46 +4269,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (4)'!H1+1</f>
         <v>42674</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -4312,37 +4369,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -4403,37 +4460,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -4495,54 +4552,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4572,46 +4629,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (5)'!H1+1</f>
         <v>42675</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -4672,37 +4729,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -4763,37 +4820,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -4855,54 +4912,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4932,46 +4989,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (6)'!H1+1</f>
         <v>42676</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5032,37 +5089,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5123,37 +5180,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5215,54 +5272,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5292,46 +5349,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (7)'!H1+1</f>
         <v>42677</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5392,37 +5449,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5483,37 +5540,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5575,54 +5632,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5652,46 +5709,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (8)'!H1+1</f>
         <v>42678</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5752,37 +5809,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5843,37 +5900,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5950,9 +6007,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -5965,24 +6019,27 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,6 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="31">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -120,6 +124,18 @@
     <t>Answer product questions for client
 Will look into understanding Scrum Master duties
 Start on chapter review questions</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Did some research online about Scum Master responsibilities.</t>
+  </si>
+  <si>
+    <t>Finished homework part 1</t>
+  </si>
+  <si>
+    <t>Work on test case for Time class</t>
   </si>
 </sst>
 </file>
@@ -278,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -319,10 +335,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -331,10 +350,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,19 +815,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -941,9 +966,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G22:I22"/>
@@ -951,22 +973,22 @@
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -989,6 +1011,9 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1039,11 +1064,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1133,11 +1158,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1224,11 +1249,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1399,11 +1424,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1493,11 +1518,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1584,11 +1609,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1759,11 +1784,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1853,11 +1878,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1944,11 +1969,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2119,11 +2144,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2213,11 +2238,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2304,11 +2329,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2479,11 +2504,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2573,11 +2598,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2664,11 +2689,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2839,11 +2864,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2933,11 +2958,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3024,11 +3049,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3159,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,11 +3224,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3303,11 +3328,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3324,49 +3349,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
@@ -3394,11 +3425,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3522,6 +3553,7 @@
     <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3569,11 +3601,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3663,11 +3695,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3754,11 +3786,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3929,11 +3961,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4023,11 +4055,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4114,11 +4146,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4289,11 +4321,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4383,11 +4415,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4474,11 +4506,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4649,11 +4681,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4743,11 +4775,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4834,11 +4866,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5009,11 +5041,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5103,11 +5135,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5194,11 +5226,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5369,11 +5401,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5463,11 +5495,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5554,11 +5586,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5729,11 +5761,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5823,11 +5855,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5914,11 +5946,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="36">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Work on test case for Time class</t>
+  </si>
+  <si>
+    <t>Researched functinality for Time function</t>
+  </si>
+  <si>
+    <t>Start creating intial GUI</t>
+  </si>
+  <si>
+    <t>Created intial GUI</t>
+  </si>
+  <si>
+    <t>Looking into implementing method for calculating Time</t>
+  </si>
+  <si>
+    <t>Trying to understand some of the Java syntax to be able to capture data from the text field when a button is pressed.</t>
   </si>
 </sst>
 </file>
@@ -299,22 +314,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -326,17 +332,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -344,11 +356,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,11 +698,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -708,75 +723,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -793,11 +808,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -815,63 +830,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -888,11 +903,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -910,94 +925,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1014,6 +997,38 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1089,59 +1104,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1180,59 +1195,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1271,62 +1286,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1336,45 +1390,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,59 +1464,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1540,59 +1555,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1631,94 +1646,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1735,6 +1718,38 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1809,59 +1824,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1900,59 +1915,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1991,62 +2006,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2056,45 +2110,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2169,59 +2184,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2260,59 +2275,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2351,62 +2366,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2416,45 +2470,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2529,59 +2544,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2620,59 +2635,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2711,62 +2726,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2776,45 +2830,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2889,59 +2904,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2980,59 +2995,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3071,62 +3086,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3136,45 +3190,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3184,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
@@ -3249,69 +3264,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3350,19 +3365,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3400,15 +3415,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3447,98 +3462,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3551,6 +3530,42 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3561,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,59 +3641,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3696,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3716,60 +3731,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3808,62 +3827,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3873,47 +3931,9 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,59 +4006,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4056,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4076,60 +4096,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4168,62 +4194,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4233,45 +4298,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4346,59 +4372,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4437,59 +4463,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4528,62 +4554,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4593,45 +4658,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4706,59 +4732,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4797,59 +4823,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4888,62 +4914,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4953,45 +5018,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5066,59 +5092,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5157,59 +5183,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5248,62 +5274,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5313,45 +5378,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5426,59 +5452,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5517,59 +5543,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5608,62 +5634,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5673,45 +5738,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5786,59 +5812,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5877,59 +5903,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5968,77 +5994,83 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6051,27 +6083,21 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="5505" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="5505" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:H13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="41">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -151,6 +147,21 @@
   </si>
   <si>
     <t>Trying to understand some of the Java syntax to be able to capture data from the text field when a button is pressed.</t>
+  </si>
+  <si>
+    <t>Add expected classes to sprint backlog</t>
+  </si>
+  <si>
+    <t>Build test case for distance (local)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re-imported git project </t>
+  </si>
+  <si>
+    <t>Work more on part 1</t>
+  </si>
+  <si>
+    <t>corrected problems with running main.java</t>
   </si>
 </sst>
 </file>
@@ -314,13 +325,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -332,13 +352,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -355,15 +375,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,11 +709,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -723,75 +734,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -808,11 +819,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -830,63 +841,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -903,11 +914,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -925,62 +936,94 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -997,38 +1040,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1104,59 +1115,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1195,59 +1206,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1286,101 +1297,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1390,6 +1362,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1464,59 +1475,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1555,59 +1566,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1646,62 +1657,94 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1718,38 +1761,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1824,59 +1835,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1915,59 +1926,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2006,101 +2017,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2110,6 +2082,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2184,59 +2195,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2275,59 +2286,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2366,101 +2377,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2470,6 +2442,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,59 +2555,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2635,59 +2646,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2726,101 +2737,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2830,6 +2802,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2904,59 +2915,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2995,59 +3006,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3086,101 +3097,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3190,6 +3162,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3264,69 +3275,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3365,19 +3376,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3415,15 +3426,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3462,62 +3473,98 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3530,42 +3577,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3576,8 +3587,383 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3">
+        <f>'Day (2)'!H1+1</f>
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,8 +3983,8 @@
         <v>12</v>
       </c>
       <c r="H1" s="3">
-        <f>'Day (2)'!H1+1</f>
-        <v>42672</v>
+        <f>'Day (3)'!H1+1</f>
+        <v>42673</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -3641,59 +4027,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3731,25 +4117,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+    <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -3758,9 +4146,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -3769,26 +4157,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3827,101 +4215,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3931,325 +4280,37 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3">
-        <f>'Day (3)'!H1+1</f>
-        <v>42673</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
@@ -4258,46 +4319,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4372,59 +4393,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4463,59 +4484,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4554,101 +4575,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4658,6 +4640,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4732,59 +4753,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4823,59 +4844,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4914,101 +4935,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5018,6 +5000,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5092,59 +5113,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5183,59 +5204,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5274,101 +5295,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5378,6 +5360,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5452,59 +5473,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5543,59 +5564,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5634,101 +5655,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5738,6 +5720,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5812,59 +5833,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5903,59 +5924,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5994,83 +6015,77 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6083,21 +6098,27 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Google Drive Unlimiteddigits\IPFW\2016 Fall\Essentials of Software engineering\Assignments\assignment-8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12525" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -28,7 +23,7 @@
     <sheet name="Day (14)" sheetId="15" r:id="rId14"/>
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="58">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -92,6 +87,131 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Mark Erickson</t>
+  </si>
+  <si>
+    <t>Created List of questions to ask customer</t>
+  </si>
+  <si>
+    <t>Add more to the Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Reviewed online calculator</t>
+  </si>
+  <si>
+    <t>Test Main.java</t>
+  </si>
+  <si>
+    <t>created Sprint Planning Meeting Notes</t>
+  </si>
+  <si>
+    <t>Aaron Elliott</t>
+  </si>
+  <si>
+    <t>Created link and repositiory in GitHub.
+Rewatched GitHub checkout video
+Established two workstations (laptops) for testing.  One to do the initial push and commit to GitHub, the other successfully checked out the code remotely and did a successful commit and push.
+Installed and worked/learned Windows Builder for Eclipse.</t>
+  </si>
+  <si>
+    <t>Answer product questions for client
+Will look into understanding Scrum Master duties
+Start on chapter review questions</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Did some research online about Scum Master responsibilities.</t>
+  </si>
+  <si>
+    <t>Finished homework part 1</t>
+  </si>
+  <si>
+    <t>Work on test case for Time class</t>
+  </si>
+  <si>
+    <t>Researched functinality for Time function</t>
+  </si>
+  <si>
+    <t>Start creating intial GUI</t>
+  </si>
+  <si>
+    <t>Created intial GUI</t>
+  </si>
+  <si>
+    <t>Looking into implementing method for calculating Time</t>
+  </si>
+  <si>
+    <t>Trying to understand some of the Java syntax to be able to capture data from the text field when a button is pressed.</t>
+  </si>
+  <si>
+    <t>Add expected classes to sprint backlog</t>
+  </si>
+  <si>
+    <t>Build test case for distance (local)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re-imported git project </t>
+  </si>
+  <si>
+    <t>Work more on part 1</t>
+  </si>
+  <si>
+    <t>corrected problems with running main.java</t>
+  </si>
+  <si>
+    <t>Samuel Scheitlin</t>
+  </si>
+  <si>
+    <t>Created a github account</t>
+  </si>
+  <si>
+    <t>Chapter review questions</t>
+  </si>
+  <si>
+    <t>Review swing for java GUI</t>
+  </si>
+  <si>
+    <t>Check out windows builder</t>
+  </si>
+  <si>
+    <t>Get linked to github</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Downloaded windows builder to eclipse</t>
+  </si>
+  <si>
+    <t>Did a review of java swing</t>
+  </si>
+  <si>
+    <t>Looked at different window layouts for java</t>
+  </si>
+  <si>
+    <t>Look at calculations for calculator</t>
+  </si>
+  <si>
+    <t>Configure eclipse for laptop</t>
+  </si>
+  <si>
+    <t>Began looking up calculators for calculator</t>
+  </si>
+  <si>
+    <t>Setup eclipse preferences on laptop</t>
+  </si>
+  <si>
+    <t>Begin working on pace calculation</t>
+  </si>
+  <si>
+    <t>Started working on pace calculation</t>
+  </si>
+  <si>
+    <t>Establish calculations and begin building test cases</t>
   </si>
 </sst>
 </file>
@@ -250,13 +370,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,7 +411,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,20 +740,20 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <v>42670</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -620,21 +764,21 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -711,22 +855,22 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -735,27 +879,31 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
@@ -802,22 +950,22 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -826,33 +974,43 @@
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="10"/>
@@ -863,7 +1021,9 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="10"/>
@@ -894,39 +1054,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
@@ -942,6 +1096,12 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -972,46 +1132,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (9)'!H1+1</f>
         <v>42679</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1072,37 +1232,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1163,37 +1323,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1255,54 +1415,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1332,46 +1492,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (10)'!H1+1</f>
         <v>42680</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1432,37 +1592,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1523,37 +1683,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1633,18 +1793,24 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A5:C5"/>
@@ -1652,17 +1818,11 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1692,46 +1852,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (11)'!H1+1</f>
         <v>42681</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -1792,37 +1952,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -1883,37 +2043,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -1975,54 +2135,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2052,46 +2212,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (12)'!H1+1</f>
         <v>42682</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2152,37 +2312,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2243,37 +2403,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -2335,54 +2495,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2412,46 +2572,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (13)'!H1+1</f>
         <v>42683</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2512,37 +2672,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2603,37 +2763,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -2695,54 +2855,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2772,46 +2932,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (14)'!H1+1</f>
         <v>42684</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2872,37 +3032,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2963,37 +3123,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -3022,6 +3182,392 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3">
+        <f>'Day (1)'!H1+1</f>
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -3073,6 +3619,7 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
@@ -3085,35 +3632,416 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3">
+        <f>'Day (2)'!H1+1</f>
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,46 +4060,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
-        <f>'Day (1)'!H1+1</f>
-        <v>42671</v>
+      <c r="H1" s="3">
+        <f>'Day (3)'!H1+1</f>
+        <v>42673</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -3232,73 +4160,79 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
@@ -3323,46 +4257,50 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
       <c r="G21" s="7"/>
@@ -3415,774 +4353,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16">
-        <f>'Day (2)'!H1+1</f>
-        <v>42672</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="16">
-        <f>'Day (3)'!H1+1</f>
-        <v>42673</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4212,46 +4430,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (4)'!H1+1</f>
         <v>42674</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -4312,37 +4530,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -4403,37 +4621,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -4495,54 +4713,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4572,46 +4790,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (5)'!H1+1</f>
         <v>42675</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -4672,37 +4890,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -4763,37 +4981,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -4855,54 +5073,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4932,46 +5150,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (6)'!H1+1</f>
         <v>42676</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5032,37 +5250,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5123,37 +5341,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5215,54 +5433,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5292,46 +5510,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (7)'!H1+1</f>
         <v>42677</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5392,37 +5610,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5483,37 +5701,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5575,54 +5793,54 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5652,46 +5870,46 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="3">
         <f>'Day (8)'!H1+1</f>
         <v>42678</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -5752,37 +5970,37 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -5843,37 +6061,37 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -5950,9 +6168,6 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -5965,24 +6180,27 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="5505" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="5505" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="45">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>corrected problems with running main.java</t>
+  </si>
+  <si>
+    <t>Worked on part 1 (Assignment-8)</t>
+  </si>
+  <si>
+    <t>designed test case</t>
+  </si>
+  <si>
+    <t>implement testcase for distance</t>
+  </si>
+  <si>
+    <t>assuming single value for time and pace</t>
   </si>
 </sst>
 </file>
@@ -325,22 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -352,13 +355,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +378,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,11 +721,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -734,75 +746,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -819,11 +831,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -841,63 +853,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -914,11 +926,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -936,94 +948,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1040,6 +1020,38 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1115,59 +1127,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1206,59 +1218,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1297,62 +1309,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1362,45 +1413,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1475,59 +1487,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1566,59 +1578,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1657,94 +1669,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1761,6 +1741,38 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,59 +1847,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1926,59 +1938,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2017,62 +2029,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2082,45 +2133,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2195,59 +2207,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2286,59 +2298,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2377,62 +2389,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2442,45 +2493,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2555,59 +2567,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2646,59 +2658,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2737,62 +2749,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2802,45 +2853,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,59 +2927,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3006,59 +3018,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3097,62 +3109,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3162,45 +3213,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3275,69 +3287,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3376,19 +3388,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3426,15 +3438,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3473,98 +3485,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3577,6 +3553,42 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3652,69 +3664,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3753,19 +3765,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -3790,26 +3802,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3848,62 +3860,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3913,45 +3964,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3963,14 +3975,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="G5" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
@@ -4027,59 +4039,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4118,26 +4138,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4146,9 +4166,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4157,26 +4177,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4215,62 +4235,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4280,45 +4339,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4393,59 +4413,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4484,59 +4504,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4575,62 +4595,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4640,45 +4699,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4753,59 +4773,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4844,59 +4864,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4935,62 +4955,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5000,45 +5059,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5113,59 +5133,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5204,59 +5224,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5295,62 +5315,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5360,45 +5419,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5473,59 +5493,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5564,59 +5584,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5655,62 +5675,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5720,45 +5779,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5833,59 +5853,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5924,59 +5944,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6015,77 +6035,83 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6098,27 +6124,21 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7065" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="5160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:L15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="63">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -223,6 +219,15 @@
   </si>
   <si>
     <t>Implement testcase for Distance</t>
+  </si>
+  <si>
+    <t>Worked on test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardize code </t>
+  </si>
+  <si>
+    <t>add test cases provided by client</t>
   </si>
 </sst>
 </file>
@@ -4051,7 +4056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
@@ -4425,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4466,7 +4471,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4490,10 +4495,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="10"/>
@@ -4504,7 +4513,9 @@
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="5160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="2970" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:L15"/>
+  <oleSize ref="A1:G7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,13 +391,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -409,13 +418,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -432,15 +441,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,11 +775,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -800,75 +800,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -885,11 +885,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -907,63 +907,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -980,11 +980,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1002,74 +1002,106 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1086,38 +1118,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1193,59 +1193,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1284,59 +1284,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1375,101 +1375,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1479,6 +1440,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1553,59 +1553,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1644,59 +1644,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1735,62 +1735,94 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1807,38 +1839,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1913,59 +1913,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2004,59 +2004,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2095,101 +2095,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2199,6 +2160,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2273,59 +2273,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2364,59 +2364,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2455,101 +2455,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2559,6 +2520,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2633,59 +2633,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2724,59 +2724,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2815,101 +2815,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2919,6 +2880,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2993,59 +2993,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3084,59 +3084,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3175,101 +3175,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3279,6 +3240,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3353,69 +3353,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3454,19 +3454,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3504,15 +3504,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3551,72 +3551,108 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3629,42 +3665,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3740,69 +3740,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3841,19 +3841,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -3878,26 +3878,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3936,107 +3936,68 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4046,6 +4007,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4121,63 +4121,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4216,26 +4216,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4244,9 +4244,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4255,26 +4255,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4313,105 +4313,66 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4421,6 +4382,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4495,65 +4495,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4592,59 +4592,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4683,101 +4683,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4787,6 +4748,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4861,59 +4861,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4952,59 +4952,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5043,101 +5043,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5147,6 +5108,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5221,59 +5221,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5312,59 +5312,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5403,101 +5403,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5507,6 +5468,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5581,59 +5581,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5672,59 +5672,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5763,101 +5763,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5867,6 +5828,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5941,59 +5941,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -6032,59 +6032,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6123,83 +6123,77 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6212,21 +6206,27 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="2970" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="2970" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,6 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:G7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -228,6 +232,21 @@
   </si>
   <si>
     <t>add test cases provided by client</t>
+  </si>
+  <si>
+    <t>Updated GUI to pass user inputs into  the utility classes.  Add intial calulations on the back end to have necssary output.</t>
+  </si>
+  <si>
+    <t>Continue to make modifications to the GUI.</t>
+  </si>
+  <si>
+    <t>Some bugs within the software, some UI outputs are not correct.</t>
+  </si>
+  <si>
+    <t>Continued working on UI.  Updated Unit Conversion class to perform calculations for hours, minutes, and seconds.</t>
+  </si>
+  <si>
+    <t>Will correspond with group for preparations for Sprint 1 review.</t>
   </si>
 </sst>
 </file>
@@ -391,22 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -418,13 +428,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -441,6 +451,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,11 +794,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -800,75 +819,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -885,11 +904,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -907,63 +926,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -980,11 +999,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1002,106 +1021,74 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1118,6 +1105,38 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1193,59 +1212,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1284,59 +1303,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1375,62 +1394,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1440,45 +1498,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1553,59 +1572,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1644,59 +1663,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1735,94 +1754,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1839,6 +1826,38 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1913,59 +1932,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2004,59 +2023,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2095,62 +2114,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2160,45 +2218,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2273,59 +2292,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2364,59 +2383,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2455,62 +2474,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2520,45 +2578,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2633,59 +2652,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2724,59 +2743,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2815,62 +2834,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2880,45 +2938,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2993,59 +3012,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3084,59 +3103,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3175,62 +3194,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3240,45 +3298,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3353,69 +3372,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3454,19 +3473,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3504,15 +3523,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3551,108 +3570,72 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3665,6 +3648,42 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3740,69 +3759,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3841,19 +3860,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -3878,26 +3897,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3936,68 +3955,107 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4007,45 +4065,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4121,63 +4140,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4216,26 +4235,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4244,9 +4263,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4255,26 +4274,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4313,66 +4332,105 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4382,45 +4440,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4430,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,65 +4514,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4571,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4591,60 +4610,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4683,62 +4708,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4748,47 +4812,9 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4796,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,59 +4887,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4931,7 +4957,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4951,60 +4977,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+    <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5043,62 +5073,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5108,45 +5177,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5221,59 +5251,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5312,59 +5342,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5403,62 +5433,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5468,45 +5537,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5581,59 +5611,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5672,59 +5702,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5763,62 +5793,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5828,45 +5897,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5941,59 +5971,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -6032,59 +6062,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6123,77 +6153,83 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6206,27 +6242,21 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8280" windowHeight="2970" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="4710" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:T13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -247,6 +243,18 @@
   </si>
   <si>
     <t>Will correspond with group for preparations for Sprint 1 review.</t>
+  </si>
+  <si>
+    <t>Prepare and particpate in Sprint 1 review.</t>
+  </si>
+  <si>
+    <t>Sprint 2 planning</t>
+  </si>
+  <si>
+    <t>Disabled visibility for  distance textfield and combobox for kilometers and miles.</t>
+  </si>
+  <si>
+    <t>Updated code to do checks for invalid user input.</t>
   </si>
 </sst>
 </file>
@@ -4822,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
@@ -5186,8 +5194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,7 +5329,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5342,26 +5350,30 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -5539,6 +5551,7 @@
     <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5547,7 +5560,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,7 +5694,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -5701,27 +5714,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="4710" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="4710" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,6 @@
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:T13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,13 +422,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -436,13 +449,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -459,15 +472,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,11 +806,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -827,75 +831,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -912,11 +916,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -934,63 +938,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1007,11 +1011,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1029,74 +1033,106 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1113,38 +1149,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1220,59 +1224,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1311,59 +1315,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1402,101 +1406,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1506,6 +1471,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1580,59 +1584,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1671,59 +1675,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1762,62 +1766,94 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1834,38 +1870,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1940,59 +1944,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2031,59 +2035,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2122,101 +2126,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2226,6 +2191,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2300,59 +2304,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2391,59 +2395,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2482,101 +2486,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2586,6 +2551,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2660,59 +2664,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2751,59 +2755,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2842,101 +2846,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2946,6 +2911,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3020,59 +3024,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3111,59 +3115,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3202,101 +3206,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3306,6 +3271,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3380,69 +3384,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3481,19 +3485,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3531,15 +3535,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3578,72 +3582,108 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3656,42 +3696,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3767,69 +3771,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3868,19 +3872,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -3905,26 +3909,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3963,107 +3967,68 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4073,6 +4038,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4148,63 +4152,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4243,26 +4247,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4271,9 +4275,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4282,26 +4286,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4340,105 +4344,66 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4448,6 +4413,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4522,65 +4526,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4619,65 +4623,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4716,101 +4720,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4820,6 +4785,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4830,7 +4834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
@@ -4895,59 +4899,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4986,19 +4990,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5012,37 +5016,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5081,101 +5085,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5185,6 +5150,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5194,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,59 +5263,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5349,20 +5353,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5376,37 +5380,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5445,101 +5449,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5549,6 +5514,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5624,59 +5628,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5715,19 +5719,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -5743,37 +5747,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5812,101 +5816,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5916,6 +5881,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5990,59 +5994,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -6081,59 +6085,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6172,83 +6176,77 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6261,21 +6259,27 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="4710" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -28,9 +23,9 @@
     <sheet name="Day (14)" sheetId="15" r:id="rId14"/>
     <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="84">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -260,12 +255,48 @@
   <si>
     <t>Updated code to do checks for invalid user input.</t>
   </si>
+  <si>
+    <t>removed hungarian notation</t>
+  </si>
+  <si>
+    <t>Created burndown chart</t>
+  </si>
+  <si>
+    <t>Added test cases provided by client</t>
+  </si>
+  <si>
+    <t>review math formulas</t>
+  </si>
+  <si>
+    <t>Try to get PaceCalculator to work with window builder</t>
+  </si>
+  <si>
+    <t>rename version that doesn't work</t>
+  </si>
+  <si>
+    <t>Renamed PaceCalculator that didn't have design tab</t>
+  </si>
+  <si>
+    <t>Add some limits to the input fields then merge them if someone has made changes to PaceCalculator</t>
+  </si>
+  <si>
+    <t>Refine Backlogs and burndown chart from class discussion</t>
+  </si>
+  <si>
+    <t>Had computer difficulties</t>
+  </si>
+  <si>
+    <t>Copied functionality from V1 to new PaceCalculator</t>
+  </si>
+  <si>
+    <t>Review checkstyle &amp; PaceCalculator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -485,6 +516,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -757,21 +806,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G22" sqref="G22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
@@ -780,7 +829,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +840,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -802,7 +851,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -815,7 +864,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -830,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -847,7 +896,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -862,7 +911,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -877,7 +926,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -890,7 +939,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -901,7 +950,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -912,7 +961,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -922,7 +971,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -937,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="160.5" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
@@ -952,7 +1001,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -963,7 +1012,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -974,7 +1023,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -985,7 +1034,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -996,7 +1045,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1007,7 +1056,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1066,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -1049,7 +1098,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -1064,7 +1113,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1077,7 +1126,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1088,7 +1137,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1156,14 +1205,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -1172,7 +1221,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1233,7 @@
         <v>42679</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1195,7 +1244,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1257,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1223,29 +1272,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1256,7 +1309,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1267,7 +1320,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1278,7 +1331,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1289,7 +1342,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1352,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1325,7 +1378,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1336,7 +1389,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1347,7 +1400,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1358,7 +1411,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1369,7 +1422,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1380,7 +1433,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1443,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1416,7 +1469,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -1427,7 +1480,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1438,7 +1491,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1449,7 +1502,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1461,7 +1514,7 @@
       <c r="I25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1499,15 +1552,14 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F6"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
   </mergeCells>
@@ -1516,14 +1568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -1532,7 +1584,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1596,7 @@
         <v>42680</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1555,7 +1607,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1568,7 +1620,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1594,7 +1646,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1605,7 +1657,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1616,7 +1668,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1627,7 +1679,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1638,7 +1690,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1649,7 +1701,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1711,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1674,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1685,7 +1737,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1696,7 +1748,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1707,7 +1759,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1718,7 +1770,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1729,7 +1781,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1740,7 +1792,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1802,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1776,7 +1828,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -1787,7 +1839,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1798,7 +1850,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1809,7 +1861,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1876,14 +1928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -1892,7 +1944,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1956,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1915,7 +1967,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1928,7 +1980,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1954,7 +2006,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1965,7 +2017,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1976,7 +2028,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1987,7 +2039,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -1998,7 +2050,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2009,7 +2061,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2071,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2034,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -2045,7 +2097,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2056,7 +2108,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2067,7 +2119,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2078,7 +2130,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2089,7 +2141,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2100,7 +2152,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2162,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2136,7 +2188,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2147,7 +2199,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2158,7 +2210,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2169,7 +2221,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -2236,14 +2288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -2252,7 +2304,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2316,7 @@
         <v>42682</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2275,7 +2327,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2288,7 +2340,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -2314,7 +2366,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -2325,7 +2377,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2336,7 +2388,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2347,7 +2399,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -2358,7 +2410,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2369,7 +2421,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2431,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -2405,7 +2457,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2416,7 +2468,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2427,7 +2479,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2438,7 +2490,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2449,7 +2501,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2460,7 +2512,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2522,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2485,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2496,7 +2548,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2507,7 +2559,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2518,7 +2570,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2529,7 +2581,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -2596,14 +2648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -2612,7 +2664,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2676,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2635,7 +2687,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2648,7 +2700,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -2674,7 +2726,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -2685,7 +2737,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2696,7 +2748,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2707,7 +2759,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -2718,7 +2770,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2729,7 +2781,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2791,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -2765,7 +2817,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -2776,7 +2828,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -2787,7 +2839,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -2798,7 +2850,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2809,7 +2861,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2820,7 +2872,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +2882,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2845,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2856,7 +2908,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -2867,7 +2919,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -2878,7 +2930,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -2889,7 +2941,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -2956,14 +3008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -2972,7 +3024,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3036,7 @@
         <v>42684</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2995,7 +3047,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3060,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3023,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -3034,7 +3086,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -3045,7 +3097,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -3056,7 +3108,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3067,7 +3119,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3078,7 +3130,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3089,7 +3141,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3151,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -3125,7 +3177,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -3136,7 +3188,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -3147,7 +3199,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -3158,7 +3210,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -3169,7 +3221,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3180,7 +3232,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3242,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3205,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -3216,7 +3268,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -3227,7 +3279,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -3238,7 +3290,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -3249,7 +3301,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -3316,14 +3368,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -3332,7 +3384,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3344,7 +3396,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3355,7 +3407,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3368,7 +3420,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3383,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -3398,7 +3450,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -3413,7 +3465,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
@@ -3426,7 +3478,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3437,7 +3489,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3448,7 +3500,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3459,7 +3511,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3469,7 +3521,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3484,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="41.25" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
@@ -3499,7 +3551,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="22" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3564,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
@@ -3523,7 +3575,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
@@ -3534,7 +3586,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -3545,7 +3597,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3556,7 +3608,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3566,7 +3618,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3581,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -3596,7 +3648,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -3611,7 +3663,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
@@ -3624,7 +3676,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -3635,7 +3687,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -3703,14 +3755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
@@ -3719,7 +3771,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3783,7 @@
         <v>42672</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3742,7 +3794,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3755,7 +3807,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3770,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -3785,7 +3837,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3852,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
@@ -3813,7 +3865,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -3824,7 +3876,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -3835,7 +3887,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3846,7 +3898,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +3908,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3871,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +3938,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -3897,7 +3949,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="22"/>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
@@ -3908,7 +3960,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -3919,7 +3971,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -3930,7 +3982,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3941,7 +3993,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3951,7 +4003,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
@@ -3981,7 +4033,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
@@ -3994,7 +4046,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -4005,7 +4057,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -4016,7 +4068,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -4084,14 +4136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -4100,7 +4152,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4112,7 +4164,7 @@
         <v>42673</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4123,7 +4175,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4136,7 +4188,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4151,7 +4203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
@@ -4166,7 +4218,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -4177,7 +4229,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -4188,7 +4240,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -4199,7 +4251,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -4210,7 +4262,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4221,7 +4273,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4283,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4246,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="66" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -4263,7 +4315,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -4274,7 +4326,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -4285,7 +4337,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -4296,7 +4348,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -4307,7 +4359,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4318,7 +4370,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4328,7 +4380,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4343,7 +4395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -4358,7 +4410,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -4369,7 +4421,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -4380,7 +4432,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -4391,7 +4443,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -4458,14 +4510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -4474,7 +4526,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4486,7 +4538,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4497,7 +4549,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4562,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4525,7 +4577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -4540,7 +4592,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -4553,7 +4605,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -4564,7 +4616,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -4575,7 +4627,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -4586,7 +4638,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4597,7 +4649,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4607,7 +4659,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4622,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="96" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>63</v>
       </c>
@@ -4639,7 +4691,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -4650,7 +4702,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -4661,7 +4713,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -4672,7 +4724,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -4683,7 +4735,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4694,7 +4746,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4756,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4719,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -4730,7 +4782,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -4741,7 +4793,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -4752,7 +4804,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -4763,7 +4815,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -4831,14 +4883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -4847,7 +4899,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4859,7 +4911,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4870,12 +4922,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4883,7 +4935,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4898,29 +4950,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -4931,7 +4991,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -4942,7 +5002,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -4953,7 +5013,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -4964,7 +5024,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4974,7 +5034,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4989,7 +5049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="72.75" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
@@ -5004,7 +5064,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -5015,7 +5075,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -5026,7 +5086,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -5037,7 +5097,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -5048,7 +5108,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5059,7 +5119,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5069,7 +5129,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5084,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5095,7 +5155,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -5106,7 +5166,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -5117,7 +5177,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -5128,7 +5188,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -5195,14 +5255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -5211,7 +5271,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5223,7 +5283,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5234,12 +5294,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5247,7 +5307,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5262,29 +5322,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -5295,7 +5363,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -5306,7 +5374,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -5317,7 +5385,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5328,7 +5396,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5338,7 +5406,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -5353,7 +5421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.5" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
@@ -5368,7 +5436,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -5379,7 +5447,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -5390,7 +5458,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -5401,7 +5469,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -5412,7 +5480,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5423,7 +5491,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5433,7 +5501,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5448,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5459,7 +5527,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -5470,7 +5538,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -5481,7 +5549,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -5492,7 +5560,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -5560,14 +5628,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -5576,7 +5644,7 @@
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5588,7 +5656,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5599,12 +5667,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5612,7 +5680,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5627,43 +5695,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+    <row r="5" spans="1:9" ht="39" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+    <row r="6" spans="1:9" ht="33" customHeight="1">
+      <c r="A6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -5671,7 +5749,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -5682,7 +5760,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5693,7 +5771,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5703,7 +5781,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -5718,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
@@ -5733,7 +5811,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="48" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>70</v>
       </c>
@@ -5746,7 +5824,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -5757,7 +5835,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -5768,7 +5846,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -5779,7 +5857,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5790,7 +5868,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -5800,7 +5878,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5815,7 +5893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -5826,7 +5904,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -5837,7 +5915,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -5848,7 +5926,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -5859,7 +5937,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -5871,7 +5949,7 @@
       <c r="I25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5907,6 +5985,7 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:C8"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
@@ -5914,11 +5993,9 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5926,23 +6003,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D5" sqref="D5:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +6031,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5965,12 +6042,12 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5978,7 +6055,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5993,40 +6070,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -6037,7 +6118,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
@@ -6048,7 +6129,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6059,7 +6140,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -6069,7 +6150,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6084,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -6095,7 +6176,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -6106,7 +6187,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -6117,7 +6198,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -6128,7 +6209,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -6139,7 +6220,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6150,7 +6231,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6160,7 +6241,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -6175,7 +6256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -6186,7 +6267,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -6197,7 +6278,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -6208,7 +6289,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -6219,7 +6300,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -6231,7 +6312,7 @@
       <c r="I25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -6267,16 +6348,14 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D17:F17"/>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\git\assignment8\assignment8\src\MeetingNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="97">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>GUI testing</t>
+  </si>
+  <si>
+    <t>Prep backlogs to turn them in.</t>
   </si>
 </sst>
 </file>
@@ -491,13 +497,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -509,13 +524,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -532,15 +547,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,11 +899,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -918,75 +924,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1003,11 +1009,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1025,63 +1031,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1098,11 +1104,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1120,74 +1126,106 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1204,38 +1242,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1246,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,63 +1317,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1406,19 +1412,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
@@ -1426,51 +1432,51 @@
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1509,100 +1515,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1612,6 +1580,44 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1623,7 +1629,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,59 +1693,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1778,59 +1788,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1869,70 +1879,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="47">
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -1941,38 +1982,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,59 +2056,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2138,59 +2151,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2229,101 +2242,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2333,6 +2307,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2407,59 +2420,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2498,59 +2511,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2589,101 +2602,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2693,6 +2667,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2767,59 +2780,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2858,59 +2871,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2949,101 +2962,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3053,6 +3027,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3127,59 +3140,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3218,59 +3231,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3309,101 +3322,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3413,6 +3387,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3487,69 +3500,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3588,19 +3601,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3638,15 +3651,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3685,72 +3698,108 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3763,42 +3812,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3874,69 +3887,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3975,19 +3988,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -4012,26 +4025,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4070,107 +4083,68 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4180,6 +4154,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4255,63 +4268,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4350,26 +4363,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4378,9 +4391,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4389,26 +4402,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4447,105 +4460,66 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4555,6 +4529,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4629,65 +4642,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4726,65 +4739,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4823,101 +4836,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4927,6 +4901,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5002,67 +5015,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5101,19 +5114,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5127,37 +5140,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5196,101 +5209,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5300,6 +5274,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5374,67 +5387,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5473,19 +5486,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5499,37 +5512,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5568,101 +5581,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5672,6 +5646,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5757,9 +5770,9 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
@@ -5772,9 +5785,9 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -5785,31 +5798,31 @@
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5848,19 +5861,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -5876,37 +5889,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5945,100 +5958,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -6048,6 +6023,44 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6122,63 +6135,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -6217,69 +6230,69 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6318,81 +6331,77 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6405,21 +6414,25 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="Day (12)" sheetId="13" r:id="rId12"/>
     <sheet name="Day (13)" sheetId="14" r:id="rId13"/>
     <sheet name="Day (14)" sheetId="15" r:id="rId14"/>
-    <sheet name="Day (15)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -334,6 +333,12 @@
   </si>
   <si>
     <t>Prep backlogs to turn them in.</t>
+  </si>
+  <si>
+    <t>format artifacts per assignment</t>
+  </si>
+  <si>
+    <t>assemble assignment requirements</t>
   </si>
 </sst>
 </file>
@@ -497,22 +502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -524,13 +520,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -547,6 +543,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,11 +904,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -924,75 +929,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1009,11 +1014,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1031,63 +1036,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1104,11 +1109,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1126,106 +1131,74 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1242,6 +1215,38 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1317,63 +1322,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1412,19 +1417,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
@@ -1432,51 +1437,51 @@
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1515,62 +1520,100 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1580,44 +1623,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1698,58 +1703,58 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1788,59 +1793,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1879,62 +1884,93 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
@@ -1951,37 +1987,6 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1991,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,63 +2061,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2151,59 +2156,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2242,62 +2247,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2307,45 +2351,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2355,15 +2360,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
@@ -2396,7 +2401,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -2420,59 +2425,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2511,59 +2522,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2602,62 +2613,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2667,45 +2717,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2780,59 +2791,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2871,59 +2882,59 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2962,62 +2973,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3027,405 +3077,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3">
-        <f>'Day (14)'!H1+1</f>
-        <v>42684</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3500,69 +3151,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3601,19 +3252,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3651,15 +3302,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3698,108 +3349,72 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3812,6 +3427,42 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3887,69 +3538,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3988,19 +3639,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -4025,26 +3676,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4083,68 +3734,107 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4154,45 +3844,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4268,63 +3919,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4363,26 +4014,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4391,9 +4042,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4402,26 +4053,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4460,66 +4111,105 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4529,45 +4219,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4642,65 +4293,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4739,65 +4390,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4836,62 +4487,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4901,45 +4591,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5015,67 +4666,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5114,19 +4765,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5140,37 +4791,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5209,62 +4860,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5274,45 +4964,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5387,67 +5038,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5486,19 +5137,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5512,37 +5163,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5581,62 +5232,101 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5646,45 +5336,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5770,9 +5421,9 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
@@ -5785,9 +5436,9 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -5798,31 +5449,31 @@
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5861,19 +5512,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -5889,37 +5540,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5958,62 +5609,100 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -6023,44 +5712,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6135,63 +5786,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -6230,69 +5881,69 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -6331,77 +5982,81 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6414,25 +6069,21 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
+++ b/assignment8/src/MeetingNotes/Daily Scrum - Meeting Notes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\git\assignment8\assignment8\src\MeetingNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\git12\assignment8\src\MeetingNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="4710" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Day (1)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="109">
   <si>
     <t>Daily Scrum Meeting (e-version)</t>
   </si>
@@ -339,6 +339,36 @@
   </si>
   <si>
     <t>assemble assignment requirements</t>
+  </si>
+  <si>
+    <t>Made some error corrections</t>
+  </si>
+  <si>
+    <t>Adjust UI layout</t>
+  </si>
+  <si>
+    <t>Add Clear buttons for textfields</t>
+  </si>
+  <si>
+    <t>Create Junit test for UnitConvert</t>
+  </si>
+  <si>
+    <t>Adjuste UI layout</t>
+  </si>
+  <si>
+    <t>Added Clear buttons for textfields</t>
+  </si>
+  <si>
+    <t>Created Junit test for UnitConvert</t>
+  </si>
+  <si>
+    <t>Misc preparations for review</t>
+  </si>
+  <si>
+    <t>Finish up homework questions</t>
+  </si>
+  <si>
+    <t>Sprint review and retrospective</t>
   </si>
 </sst>
 </file>
@@ -502,13 +532,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -520,13 +559,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -543,15 +582,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,11 +934,11 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -929,75 +959,75 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1014,11 +1044,11 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1036,63 +1066,63 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1109,11 +1139,11 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1131,74 +1161,106 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:D19"/>
@@ -1215,38 +1277,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1258,7 +1288,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F6"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,63 +1352,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1417,19 +1447,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
@@ -1437,51 +1467,51 @@
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1520,100 +1550,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -1623,6 +1615,44 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1634,7 +1664,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+      <selection activeCell="D15" sqref="D13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,58 +1733,58 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1772,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -1793,59 +1823,69 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1884,62 +1924,93 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D8:F8"/>
@@ -1955,38 +2026,7 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1997,7 +2037,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F5"/>
+      <selection activeCell="D14" sqref="D13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,63 +2101,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2135,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2156,59 +2196,69 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2247,101 +2297,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2351,6 +2362,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2360,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,65 +2475,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2501,7 +2551,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2522,59 +2572,67 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2613,101 +2671,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -2717,6 +2736,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2726,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,59 +2849,59 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2861,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2882,59 +2940,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -2973,101 +3037,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3077,6 +3102,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3151,69 +3215,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3252,19 +3316,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -3302,15 +3366,15 @@
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3349,72 +3413,108 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="D6:F6"/>
@@ -3427,42 +3527,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3538,69 +3602,69 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3639,19 +3703,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -3676,26 +3740,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -3734,107 +3798,68 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -3844,6 +3869,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3919,63 +3983,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4014,26 +4078,26 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
@@ -4042,9 +4106,9 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
@@ -4053,26 +4117,26 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4111,105 +4175,66 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4219,6 +4244,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4293,65 +4357,65 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4390,65 +4454,65 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4487,101 +4551,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4591,6 +4616,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4666,67 +4730,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -4765,19 +4829,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -4791,37 +4855,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -4860,101 +4924,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -4964,6 +4989,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5038,67 +5102,67 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5137,19 +5201,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
@@ -5163,37 +5227,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5232,101 +5296,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5336,6 +5361,45 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5421,9 +5485,9 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
@@ -5436,9 +5500,9 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
@@ -5449,31 +5513,31 @@
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5512,19 +5576,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -5540,37 +5604,37 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5609,100 +5673,62 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
@@ -5712,6 +5738,44 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5786,63 +5850,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="25" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -5881,69 +5945,69 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -5982,81 +6046,77 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D5:F7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
@@ -6069,21 +6129,25 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D5:F7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
